--- a/1.Data/tar_nodes_en.xlsx
+++ b/1.Data/tar_nodes_en.xlsx
@@ -2,24 +2,29 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Seafile\Strategic-Planning-Platform\1.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="28800" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="12570"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="45">
   <si>
     <t>label</t>
   </si>
@@ -66,9 +71,6 @@
     <t>correlation_graph</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>stem</t>
   </si>
   <si>
@@ -84,33 +86,33 @@
     <t>interact</t>
   </si>
   <si>
+    <t>Visualization of pairwise correlations</t>
+  </si>
+  <si>
     <t>Блок взаимодействия с пользователем</t>
   </si>
   <si>
     <t>dashboard</t>
   </si>
   <si>
-    <t>2</t>
+    <t>Visualization of the results</t>
   </si>
   <si>
     <t>download_files</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>download</t>
   </si>
   <si>
+    <t>Loading of initial data</t>
+  </si>
+  <si>
     <t>Блок загрузки</t>
   </si>
   <si>
     <t>download_quotes_agregation_level1.xlsx</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>uptodate</t>
   </si>
   <si>
@@ -120,37 +122,28 @@
     <t>download_quotes_agregation_level10.xlsx</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>download_quotes_agregation_level2.xlsx</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>download_quotes_agregation_level9.xlsx</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>model_data</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>data</t>
   </si>
   <si>
+    <t>Methanol price forecast</t>
+  </si>
+  <si>
     <t>Блок моделирования и прогнозирования</t>
   </si>
   <si>
     <t>model_graph</t>
   </si>
   <si>
-    <t>8</t>
+    <t>Methanol price visualization</t>
   </si>
   <si>
     <t>Блок графиков</t>
@@ -159,34 +152,13 @@
     <t>quotes_forecast</t>
   </si>
   <si>
-    <t>9</t>
+    <t>Formation of scenario conditions</t>
   </si>
   <si>
     <t>send_report</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Visualization of pairwise correlations</t>
-  </si>
-  <si>
-    <t>Loading of initial data</t>
-  </si>
-  <si>
-    <t>Methanol price forecast</t>
-  </si>
-  <si>
-    <t>Formation of scenario conditions</t>
-  </si>
-  <si>
-    <t>Methanol price visualization</t>
-  </si>
-  <si>
     <t>Preparing and sending the report</t>
-  </si>
-  <si>
-    <t>Visualization of the results</t>
   </si>
 </sst>
 </file>
@@ -196,9 +168,10 @@
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -242,9 +215,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -252,41 +225,45 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -315,9 +292,13 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -346,7 +327,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -355,166 +336,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -523,10 +480,10 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection sqref="A1:N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -576,14 +533,14 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
       </c>
       <c r="E2">
         <v>0.61299999999999999</v>
@@ -592,10 +549,10 @@
         <v>163561</v>
       </c>
       <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
         <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
       </c>
       <c r="J2">
         <v>211</v>
@@ -604,10 +561,10 @@
         <v>123</v>
       </c>
       <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
         <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>49</v>
       </c>
       <c r="N2" t="s">
         <v>21</v>
@@ -617,14 +574,14 @@
       <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
+      <c r="B3">
+        <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -633,10 +590,10 @@
         <v>44</v>
       </c>
       <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
         <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
       </c>
       <c r="J3">
         <v>522</v>
@@ -645,10 +602,10 @@
         <v>-94</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="N3" t="s">
         <v>21</v>
@@ -658,14 +615,14 @@
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
+      <c r="B4">
+        <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
       </c>
       <c r="E4">
         <v>3.0000000000000001E-3</v>
@@ -674,10 +631,10 @@
         <v>13922</v>
       </c>
       <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
         <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
       </c>
       <c r="J4">
         <v>-289</v>
@@ -686,10 +643,10 @@
         <v>-30</v>
       </c>
       <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
         <v>26</v>
-      </c>
-      <c r="M4" t="s">
-        <v>50</v>
       </c>
       <c r="N4" t="s">
         <v>27</v>
@@ -699,14 +656,14 @@
       <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
         <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
       </c>
       <c r="E5">
         <v>0.02</v>
@@ -715,10 +672,10 @@
         <v>4143</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J5">
         <v>-579</v>
@@ -727,7 +684,7 @@
         <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N5" t="s">
         <v>27</v>
@@ -735,36 +692,36 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
       </c>
       <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
       <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
         <v>18</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0.02</v>
@@ -773,10 +730,10 @@
         <v>5183</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J7">
         <v>-582</v>
@@ -785,7 +742,7 @@
         <v>-144</v>
       </c>
       <c r="L7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N7" t="s">
         <v>27</v>
@@ -793,16 +750,16 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>0.02</v>
@@ -811,10 +768,10 @@
         <v>5183</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J8">
         <v>-589</v>
@@ -825,16 +782,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
       </c>
       <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
         <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
       </c>
       <c r="E9">
         <v>1.4E-2</v>
@@ -843,10 +800,10 @@
         <v>6787</v>
       </c>
       <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
         <v>18</v>
-      </c>
-      <c r="I9" t="s">
-        <v>19</v>
       </c>
       <c r="J9">
         <v>13</v>
@@ -855,27 +812,27 @@
         <v>16</v>
       </c>
       <c r="L9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="N9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
       </c>
       <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
         <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
       </c>
       <c r="E10">
         <v>0.31900000000000001</v>
@@ -884,10 +841,10 @@
         <v>225872</v>
       </c>
       <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
         <v>18</v>
-      </c>
-      <c r="I10" t="s">
-        <v>19</v>
       </c>
       <c r="J10">
         <v>312</v>
@@ -896,27 +853,27 @@
         <v>-46</v>
       </c>
       <c r="L10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M10" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="N10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
       </c>
       <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
         <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
       </c>
       <c r="E11">
         <v>0.17799999999999999</v>
@@ -925,10 +882,10 @@
         <v>4599</v>
       </c>
       <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
         <v>18</v>
-      </c>
-      <c r="I11" t="s">
-        <v>19</v>
       </c>
       <c r="J11">
         <v>-201</v>
@@ -937,27 +894,27 @@
         <v>128</v>
       </c>
       <c r="L11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M11" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="N11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
       </c>
       <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
         <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
       </c>
       <c r="E12">
         <v>1E-3</v>
@@ -966,10 +923,10 @@
         <v>44</v>
       </c>
       <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
         <v>18</v>
-      </c>
-      <c r="I12" t="s">
-        <v>19</v>
       </c>
       <c r="J12">
         <v>526</v>
@@ -978,10 +935,10 @@
         <v>24</v>
       </c>
       <c r="L12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M12" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="N12" t="s">
         <v>21</v>
@@ -989,6 +946,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>